--- a/data_capture/excels/CASH3_SA_dados.xlsx
+++ b/data_capture/excels/CASH3_SA_dados.xlsx
@@ -967,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1124"/>
+  <dimension ref="A1:H1126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,16 +1056,16 @@
         <v>44146</v>
       </c>
       <c r="B4">
-        <v>6.932535648345947</v>
+        <v>6.932534694671631</v>
       </c>
       <c r="C4">
-        <v>7.002916455161203</v>
+        <v>7.00291549180495</v>
       </c>
       <c r="D4">
-        <v>6.777697228994397</v>
+        <v>6.777696296620428</v>
       </c>
       <c r="E4">
-        <v>6.932535648345947</v>
+        <v>6.932534694671631</v>
       </c>
       <c r="F4">
         <v>245460</v>
@@ -1134,16 +1134,16 @@
         <v>44151</v>
       </c>
       <c r="B7">
-        <v>7.038106918334961</v>
+        <v>7.038107395172119</v>
       </c>
       <c r="C7">
-        <v>7.249250133939483</v>
+        <v>7.249250625081758</v>
       </c>
       <c r="D7">
-        <v>6.862154507147006</v>
+        <v>6.862154972063254</v>
       </c>
       <c r="E7">
-        <v>7.038106918334961</v>
+        <v>7.038107395172119</v>
       </c>
       <c r="F7">
         <v>303120</v>
@@ -1212,16 +1212,16 @@
         <v>44154</v>
       </c>
       <c r="B10">
-        <v>6.84104039644547</v>
+        <v>6.841040855342277</v>
       </c>
       <c r="C10">
-        <v>7.108487606048584</v>
+        <v>7.108488082885742</v>
       </c>
       <c r="D10">
-        <v>6.791772787795505</v>
+        <v>6.791773243387443</v>
       </c>
       <c r="E10">
-        <v>7.108487606048584</v>
+        <v>7.108488082885742</v>
       </c>
       <c r="F10">
         <v>147360</v>
@@ -1316,16 +1316,16 @@
         <v>44161</v>
       </c>
       <c r="B14">
-        <v>7.045144803487455</v>
+        <v>7.04514527607558</v>
       </c>
       <c r="C14">
-        <v>7.108487606048584</v>
+        <v>7.108488082885742</v>
       </c>
       <c r="D14">
-        <v>6.967726001567727</v>
+        <v>6.967726468962601</v>
       </c>
       <c r="E14">
-        <v>7.108487606048584</v>
+        <v>7.108488082885742</v>
       </c>
       <c r="F14">
         <v>81240</v>
@@ -1446,16 +1446,16 @@
         <v>44168</v>
       </c>
       <c r="B19">
-        <v>7.087373607010686</v>
+        <v>7.087374082431517</v>
       </c>
       <c r="C19">
-        <v>7.319630818217303</v>
+        <v>7.319631309217942</v>
       </c>
       <c r="D19">
-        <v>7.066259607972787</v>
+        <v>7.066260081977293</v>
       </c>
       <c r="E19">
-        <v>7.108487606048584</v>
+        <v>7.108488082885742</v>
       </c>
       <c r="F19">
         <v>205080</v>
@@ -1472,16 +1472,16 @@
         <v>44169</v>
       </c>
       <c r="B20">
-        <v>7.199983617332403</v>
+        <v>7.199983141889538</v>
       </c>
       <c r="C20">
-        <v>7.340746035169958</v>
+        <v>7.340745550432003</v>
       </c>
       <c r="D20">
-        <v>7.108488005465619</v>
+        <v>7.108487536064564</v>
       </c>
       <c r="E20">
-        <v>7.22109842300415</v>
+        <v>7.221097946166992</v>
       </c>
       <c r="F20">
         <v>83580</v>
@@ -1524,16 +1524,16 @@
         <v>44173</v>
       </c>
       <c r="B22">
-        <v>7.157755489957086</v>
+        <v>7.15775502366531</v>
       </c>
       <c r="C22">
-        <v>7.481507514892233</v>
+        <v>7.48150702750964</v>
       </c>
       <c r="D22">
-        <v>7.157755489957086</v>
+        <v>7.15775502366531</v>
       </c>
       <c r="E22">
-        <v>7.319631099700928</v>
+        <v>7.31963062286377</v>
       </c>
       <c r="F22">
         <v>85140</v>
@@ -1550,16 +1550,16 @@
         <v>44174</v>
       </c>
       <c r="B23">
-        <v>7.432241515242564</v>
+        <v>7.432241031069404</v>
       </c>
       <c r="C23">
-        <v>7.495584320239604</v>
+        <v>7.495583831939978</v>
       </c>
       <c r="D23">
-        <v>7.143678684609716</v>
+        <v>7.143678219234973</v>
       </c>
       <c r="E23">
-        <v>7.319631099700928</v>
+        <v>7.31963062286377</v>
       </c>
       <c r="F23">
         <v>129780</v>
@@ -1732,16 +1732,16 @@
         <v>44183</v>
       </c>
       <c r="B30">
-        <v>11.32431490582017</v>
+        <v>11.32431390290388</v>
       </c>
       <c r="C30">
-        <v>11.32431490582017</v>
+        <v>11.32431390290388</v>
       </c>
       <c r="D30">
-        <v>10.35305636144596</v>
+        <v>10.35305544454733</v>
       </c>
       <c r="E30">
-        <v>10.7683048248291</v>
+        <v>10.76830387115479</v>
       </c>
       <c r="F30">
         <v>713940</v>
@@ -1758,16 +1758,16 @@
         <v>44186</v>
       </c>
       <c r="B31">
-        <v>10.55716101057278</v>
+        <v>10.5571600816692</v>
       </c>
       <c r="C31">
-        <v>11.12020906083835</v>
+        <v>11.1202080823933</v>
       </c>
       <c r="D31">
-        <v>10.07153176517593</v>
+        <v>10.0715308790019</v>
       </c>
       <c r="E31">
-        <v>10.83868503570557</v>
+        <v>10.83868408203125</v>
       </c>
       <c r="F31">
         <v>626520</v>
@@ -1836,16 +1836,16 @@
         <v>44193</v>
       </c>
       <c r="B34">
-        <v>10.77534282516475</v>
+        <v>10.77534187086712</v>
       </c>
       <c r="C34">
-        <v>10.90906644243702</v>
+        <v>10.90906547629643</v>
       </c>
       <c r="D34">
-        <v>10.45158997704001</v>
+        <v>10.45158905141494</v>
       </c>
       <c r="E34">
-        <v>10.7683048248291</v>
+        <v>10.76830387115479</v>
       </c>
       <c r="F34">
         <v>333120</v>
@@ -1888,16 +1888,16 @@
         <v>44195</v>
       </c>
       <c r="B36">
-        <v>10.74015090038095</v>
+        <v>10.74015186993922</v>
       </c>
       <c r="C36">
-        <v>10.83868450572125</v>
+        <v>10.83868548417456</v>
       </c>
       <c r="D36">
-        <v>10.48677888742696</v>
+        <v>10.48677983411229</v>
       </c>
       <c r="E36">
-        <v>10.56419849395752</v>
+        <v>10.56419944763184</v>
       </c>
       <c r="F36">
         <v>251340</v>
@@ -1914,16 +1914,16 @@
         <v>44200</v>
       </c>
       <c r="B37">
-        <v>10.90906644641546</v>
+        <v>10.90906471347857</v>
       </c>
       <c r="C37">
-        <v>12.64044110938341</v>
+        <v>12.64043910141263</v>
       </c>
       <c r="D37">
-        <v>10.75422802263227</v>
+        <v>10.75422631429191</v>
       </c>
       <c r="E37">
-        <v>12.00701141357422</v>
+        <v>12.00700950622559</v>
       </c>
       <c r="F37">
         <v>2310120</v>
@@ -1966,16 +1966,16 @@
         <v>44202</v>
       </c>
       <c r="B39">
-        <v>12.42929612086994</v>
+        <v>12.42929715793204</v>
       </c>
       <c r="C39">
-        <v>12.59821052145763</v>
+        <v>12.59821157261343</v>
       </c>
       <c r="D39">
-        <v>11.31023731084814</v>
+        <v>11.31023825453943</v>
       </c>
       <c r="E39">
-        <v>11.4298849105835</v>
+        <v>11.42988586425781</v>
       </c>
       <c r="F39">
         <v>1246380</v>
@@ -1992,16 +1992,16 @@
         <v>44203</v>
       </c>
       <c r="B40">
-        <v>11.53545689713938</v>
+        <v>11.53545785843835</v>
       </c>
       <c r="C40">
-        <v>11.65510530632071</v>
+        <v>11.65510627759049</v>
       </c>
       <c r="D40">
-        <v>10.87387527136609</v>
+        <v>10.87387617753263</v>
       </c>
       <c r="E40">
-        <v>11.44396209716797</v>
+        <v>11.44396305084229</v>
       </c>
       <c r="F40">
         <v>941640</v>
@@ -2018,16 +2018,16 @@
         <v>44204</v>
       </c>
       <c r="B41">
-        <v>11.90847746422</v>
+        <v>11.90847665090496</v>
       </c>
       <c r="C41">
-        <v>13.96360397338867</v>
+        <v>13.96360301971436</v>
       </c>
       <c r="D41">
-        <v>11.90847746422</v>
+        <v>11.90847665090496</v>
       </c>
       <c r="E41">
-        <v>13.96360397338867</v>
+        <v>13.96360301971436</v>
       </c>
       <c r="F41">
         <v>1864200</v>
@@ -2148,16 +2148,16 @@
         <v>44211</v>
       </c>
       <c r="B46">
-        <v>17.91198084508522</v>
+        <v>17.91198272655886</v>
       </c>
       <c r="C46">
-        <v>19.00288847989814</v>
+        <v>19.00289047596067</v>
       </c>
       <c r="D46">
-        <v>17.32781883614337</v>
+        <v>17.32782065625665</v>
       </c>
       <c r="E46">
-        <v>18.15831565856934</v>
+        <v>18.15831756591797</v>
       </c>
       <c r="F46">
         <v>1837500</v>
@@ -2174,16 +2174,16 @@
         <v>44214</v>
       </c>
       <c r="B47">
-        <v>18.41168766571299</v>
+        <v>18.41168960493727</v>
       </c>
       <c r="C47">
-        <v>18.65098287931472</v>
+        <v>18.65098484374295</v>
       </c>
       <c r="D47">
-        <v>17.94717323802787</v>
+        <v>17.94717512832684</v>
       </c>
       <c r="E47">
-        <v>18.10904884338379</v>
+        <v>18.10905075073242</v>
       </c>
       <c r="F47">
         <v>1034640</v>
@@ -2278,16 +2278,16 @@
         <v>44218</v>
       </c>
       <c r="B51">
-        <v>21.89555154602499</v>
+        <v>21.89554962943533</v>
       </c>
       <c r="C51">
-        <v>24.98528027478734</v>
+        <v>24.98527808774356</v>
       </c>
       <c r="D51">
-        <v>21.37473148939113</v>
+        <v>21.37472961839056</v>
       </c>
       <c r="E51">
-        <v>21.78997993469238</v>
+        <v>21.78997802734375</v>
       </c>
       <c r="F51">
         <v>6573240</v>
@@ -2330,16 +2330,16 @@
         <v>44223</v>
       </c>
       <c r="B53">
-        <v>18.48910823496853</v>
+        <v>18.48910625995676</v>
       </c>
       <c r="C53">
-        <v>20.11491042726577</v>
+        <v>20.11490827858535</v>
       </c>
       <c r="D53">
-        <v>17.46858210789528</v>
+        <v>17.4685802418964</v>
       </c>
       <c r="E53">
-        <v>17.85567855834961</v>
+        <v>17.85567665100098</v>
       </c>
       <c r="F53">
         <v>4076280</v>
@@ -2356,16 +2356,16 @@
         <v>44224</v>
       </c>
       <c r="B54">
-        <v>18.13720303958358</v>
+        <v>18.13720124831627</v>
       </c>
       <c r="C54">
-        <v>19.94599642137227</v>
+        <v>19.94599445146483</v>
       </c>
       <c r="D54">
-        <v>18.08793542878193</v>
+        <v>18.0879336423804</v>
       </c>
       <c r="E54">
-        <v>19.31256675720215</v>
+        <v>19.31256484985352</v>
       </c>
       <c r="F54">
         <v>2771280</v>
@@ -2460,16 +2460,16 @@
         <v>44230</v>
       </c>
       <c r="B58">
-        <v>21.46622826475003</v>
+        <v>21.46622647201865</v>
       </c>
       <c r="C58">
-        <v>22.8527352873207</v>
+        <v>22.85273337879653</v>
       </c>
       <c r="D58">
-        <v>21.21989502858061</v>
+        <v>21.21989325642151</v>
       </c>
       <c r="E58">
-        <v>22.83865928649902</v>
+        <v>22.83865737915039</v>
       </c>
       <c r="F58">
         <v>3915540</v>
@@ -2486,16 +2486,16 @@
         <v>44231</v>
       </c>
       <c r="B59">
-        <v>23.4932025203154</v>
+        <v>23.49319878616312</v>
       </c>
       <c r="C59">
-        <v>25.4216452013304</v>
+        <v>25.42164116065972</v>
       </c>
       <c r="D59">
-        <v>23.22575528826124</v>
+        <v>23.22575159661864</v>
       </c>
       <c r="E59">
-        <v>23.99994659423828</v>
+        <v>23.99994277954102</v>
       </c>
       <c r="F59">
         <v>5660460</v>
@@ -2512,16 +2512,16 @@
         <v>44232</v>
       </c>
       <c r="B60">
-        <v>24.63337701126955</v>
+        <v>24.63337506499539</v>
       </c>
       <c r="C60">
-        <v>25.80874081092788</v>
+        <v>25.80873877178866</v>
       </c>
       <c r="D60">
-        <v>23.51431882632964</v>
+        <v>23.51431696847186</v>
       </c>
       <c r="E60">
-        <v>24.14070892333984</v>
+        <v>24.14070701599121</v>
       </c>
       <c r="F60">
         <v>3887580</v>
@@ -2616,16 +2616,16 @@
         <v>44238</v>
       </c>
       <c r="B64">
-        <v>20.91021503233225</v>
+        <v>20.91021701509398</v>
       </c>
       <c r="C64">
-        <v>21.65625423992105</v>
+        <v>21.65625629342418</v>
       </c>
       <c r="D64">
-        <v>20.11490821838379</v>
+        <v>20.11491012573242</v>
       </c>
       <c r="E64">
-        <v>20.11490821838379</v>
+        <v>20.11491012573242</v>
       </c>
       <c r="F64">
         <v>1580760</v>
@@ -2642,16 +2642,16 @@
         <v>44239</v>
       </c>
       <c r="B65">
-        <v>20.11491008694576</v>
+        <v>20.11490816072581</v>
       </c>
       <c r="C65">
-        <v>20.42458691989087</v>
+        <v>20.42458496401602</v>
       </c>
       <c r="D65">
-        <v>19.10846158804535</v>
+        <v>19.10845975820371</v>
       </c>
       <c r="E65">
-        <v>19.91784286499023</v>
+        <v>19.9178409576416</v>
       </c>
       <c r="F65">
         <v>2112600</v>
@@ -2668,16 +2668,16 @@
         <v>44244</v>
       </c>
       <c r="B66">
-        <v>20.00933676133575</v>
+        <v>20.00933864876776</v>
       </c>
       <c r="C66">
-        <v>21.10024438861572</v>
+        <v>21.10024637895039</v>
       </c>
       <c r="D66">
-        <v>19.99526076253011</v>
+        <v>19.99526264863436</v>
       </c>
       <c r="E66">
-        <v>20.22047996520996</v>
+        <v>20.22048187255859</v>
       </c>
       <c r="F66">
         <v>1052160</v>
@@ -2824,16 +2824,16 @@
         <v>44252</v>
       </c>
       <c r="B72">
-        <v>20.93132907755005</v>
+        <v>20.93133119650969</v>
       </c>
       <c r="C72">
-        <v>21.32546348573627</v>
+        <v>21.32546564459566</v>
       </c>
       <c r="D72">
-        <v>18.84101104736328</v>
+        <v>18.84101295471191</v>
       </c>
       <c r="E72">
-        <v>18.84101104736328</v>
+        <v>18.84101295471191</v>
       </c>
       <c r="F72">
         <v>1577820</v>
@@ -2928,16 +2928,16 @@
         <v>44258</v>
       </c>
       <c r="B76">
-        <v>19.44629042101412</v>
+        <v>19.44628855882173</v>
       </c>
       <c r="C76">
-        <v>20.81872136380191</v>
+        <v>20.81871937018443</v>
       </c>
       <c r="D76">
-        <v>18.65802314408698</v>
+        <v>18.6580213573797</v>
       </c>
       <c r="E76">
-        <v>19.91784286499023</v>
+        <v>19.9178409576416</v>
       </c>
       <c r="F76">
         <v>2180460</v>
@@ -2954,16 +2954,16 @@
         <v>44259</v>
       </c>
       <c r="B77">
-        <v>20.07268020375179</v>
+        <v>20.07268221549674</v>
       </c>
       <c r="C77">
-        <v>20.40347100568085</v>
+        <v>20.40347305057866</v>
       </c>
       <c r="D77">
-        <v>18.82693498883749</v>
+        <v>18.82693687573008</v>
       </c>
       <c r="E77">
-        <v>19.03104019165039</v>
+        <v>19.03104209899902</v>
       </c>
       <c r="F77">
         <v>1797840</v>
@@ -3032,16 +3032,16 @@
         <v>44264</v>
       </c>
       <c r="B80">
-        <v>16.34952431043594</v>
+        <v>16.34952237391008</v>
       </c>
       <c r="C80">
-        <v>16.82107677194733</v>
+        <v>16.82107477956825</v>
       </c>
       <c r="D80">
-        <v>15.99057985320666</v>
+        <v>15.99057795919612</v>
       </c>
       <c r="E80">
-        <v>16.10318946838379</v>
+        <v>16.10318756103516</v>
       </c>
       <c r="F80">
         <v>1145820</v>
@@ -3214,16 +3214,16 @@
         <v>44273</v>
       </c>
       <c r="B87">
-        <v>17.91902098965704</v>
+        <v>17.91902302235267</v>
       </c>
       <c r="C87">
-        <v>17.91902098965704</v>
+        <v>17.91902302235267</v>
       </c>
       <c r="D87">
-        <v>16.53955050352489</v>
+        <v>16.53955237973632</v>
       </c>
       <c r="E87">
-        <v>16.81403732299805</v>
+        <v>16.81403923034668</v>
       </c>
       <c r="F87">
         <v>751140</v>
@@ -3240,16 +3240,16 @@
         <v>44274</v>
       </c>
       <c r="B88">
-        <v>16.91961038045793</v>
+        <v>16.91960845791454</v>
       </c>
       <c r="C88">
-        <v>17.32782083941271</v>
+        <v>17.32781887048513</v>
       </c>
       <c r="D88">
-        <v>16.51139992150316</v>
+        <v>16.51139804534395</v>
       </c>
       <c r="E88">
-        <v>16.78588676452637</v>
+        <v>16.78588485717773</v>
       </c>
       <c r="F88">
         <v>795240</v>
@@ -3318,16 +3318,16 @@
         <v>44279</v>
       </c>
       <c r="B91">
-        <v>16.87034287032558</v>
+        <v>16.8703438773553</v>
       </c>
       <c r="C91">
-        <v>16.96887647612243</v>
+        <v>16.96887748903384</v>
       </c>
       <c r="D91">
-        <v>15.74424520874508</v>
+        <v>15.74424614855543</v>
       </c>
       <c r="E91">
-        <v>15.97650241851807</v>
+        <v>15.97650337219238</v>
       </c>
       <c r="F91">
         <v>483060</v>
@@ -3344,16 +3344,16 @@
         <v>44280</v>
       </c>
       <c r="B92">
-        <v>16.01873270889761</v>
+        <v>16.0187336778989</v>
       </c>
       <c r="C92">
-        <v>16.3284079278431</v>
+        <v>16.32840891557718</v>
       </c>
       <c r="D92">
-        <v>15.25157782878447</v>
+        <v>15.2515787513792</v>
       </c>
       <c r="E92">
-        <v>15.76535987854004</v>
+        <v>15.76536083221436</v>
       </c>
       <c r="F92">
         <v>764700</v>
@@ -3370,16 +3370,16 @@
         <v>44281</v>
       </c>
       <c r="B93">
-        <v>16.04688548182164</v>
+        <v>16.04688359270127</v>
       </c>
       <c r="C93">
-        <v>16.3213723252108</v>
+        <v>16.32137040377646</v>
       </c>
       <c r="D93">
-        <v>15.8498182523466</v>
+        <v>15.84981638642599</v>
       </c>
       <c r="E93">
-        <v>16.20172309875488</v>
+        <v>16.20172119140625</v>
       </c>
       <c r="F93">
         <v>685020</v>
@@ -3396,16 +3396,16 @@
         <v>44284</v>
       </c>
       <c r="B94">
-        <v>15.98354160494411</v>
+        <v>15.98354065168953</v>
       </c>
       <c r="C94">
-        <v>16.50436167114307</v>
+        <v>16.50436068682692</v>
       </c>
       <c r="D94">
-        <v>15.70905637697524</v>
+        <v>15.70905544009091</v>
       </c>
       <c r="E94">
-        <v>15.99057960510254</v>
+        <v>15.99057865142822</v>
       </c>
       <c r="F94">
         <v>628500</v>
@@ -3474,16 +3474,16 @@
         <v>44287</v>
       </c>
       <c r="B97">
-        <v>17.34189649475049</v>
+        <v>17.3418946422842</v>
       </c>
       <c r="C97">
-        <v>18.20758339728402</v>
+        <v>18.20758145234481</v>
       </c>
       <c r="D97">
-        <v>16.89849604329624</v>
+        <v>16.89849423819411</v>
       </c>
       <c r="E97">
-        <v>17.85567855834961</v>
+        <v>17.85567665100098</v>
       </c>
       <c r="F97">
         <v>1053420</v>
@@ -3500,16 +3500,16 @@
         <v>44291</v>
       </c>
       <c r="B98">
-        <v>18.08793548319677</v>
+        <v>18.08793372372595</v>
       </c>
       <c r="C98">
-        <v>19.60816764831543</v>
+        <v>19.6081657409668</v>
       </c>
       <c r="D98">
-        <v>18.03163148313401</v>
+        <v>18.03162972914005</v>
       </c>
       <c r="E98">
-        <v>19.60816764831543</v>
+        <v>19.6081657409668</v>
       </c>
       <c r="F98">
         <v>2323800</v>
@@ -3526,16 +3526,16 @@
         <v>44292</v>
       </c>
       <c r="B99">
-        <v>20.410509589305</v>
+        <v>20.41051144981996</v>
       </c>
       <c r="C99">
-        <v>21.10024482118505</v>
+        <v>21.10024674457265</v>
       </c>
       <c r="D99">
-        <v>20.05860477926529</v>
+        <v>20.05860660770245</v>
       </c>
       <c r="E99">
-        <v>20.92429161071777</v>
+        <v>20.92429351806641</v>
       </c>
       <c r="F99">
         <v>2190420</v>
@@ -3552,16 +3552,16 @@
         <v>44293</v>
       </c>
       <c r="B100">
-        <v>20.90317812529396</v>
+        <v>20.90318001042726</v>
       </c>
       <c r="C100">
-        <v>21.37473055010688</v>
+        <v>21.3747324777667</v>
       </c>
       <c r="D100">
-        <v>20.15713887872023</v>
+        <v>20.15714069657269</v>
       </c>
       <c r="E100">
-        <v>21.14951133728027</v>
+        <v>21.14951324462891</v>
       </c>
       <c r="F100">
         <v>1531020</v>
@@ -3630,16 +3630,16 @@
         <v>44298</v>
       </c>
       <c r="B103">
-        <v>23.22575288973573</v>
+        <v>23.22575476861651</v>
       </c>
       <c r="C103">
-        <v>23.9154865103476</v>
+        <v>23.91548844502539</v>
       </c>
       <c r="D103">
-        <v>22.95126607486273</v>
+        <v>22.95126793153851</v>
       </c>
       <c r="E103">
-        <v>23.57765769958496</v>
+        <v>23.57765960693359</v>
       </c>
       <c r="F103">
         <v>998220</v>
@@ -3708,16 +3708,16 @@
         <v>44301</v>
       </c>
       <c r="B106">
-        <v>22.88088485046874</v>
+        <v>22.88088861080256</v>
       </c>
       <c r="C106">
-        <v>23.80287562827772</v>
+        <v>23.8028795401351</v>
       </c>
       <c r="D106">
-        <v>22.669741653721</v>
+        <v>22.66974537935472</v>
       </c>
       <c r="E106">
-        <v>23.2116756439209</v>
+        <v>23.21167945861816</v>
       </c>
       <c r="F106">
         <v>1235580</v>
@@ -3734,16 +3734,16 @@
         <v>44302</v>
       </c>
       <c r="B107">
-        <v>23.35947649195316</v>
+        <v>23.35947838165171</v>
       </c>
       <c r="C107">
-        <v>23.99994411576197</v>
+        <v>23.99994605727207</v>
       </c>
       <c r="D107">
-        <v>23.35947649195316</v>
+        <v>23.35947838165171</v>
       </c>
       <c r="E107">
-        <v>23.57765769958496</v>
+        <v>23.57765960693359</v>
       </c>
       <c r="F107">
         <v>918240</v>
@@ -3760,16 +3760,16 @@
         <v>44305</v>
       </c>
       <c r="B108">
-        <v>23.57765803387803</v>
+        <v>23.57766000598228</v>
       </c>
       <c r="C108">
-        <v>23.80287724424636</v>
+        <v>23.80287923518861</v>
       </c>
       <c r="D108">
-        <v>22.7401231891924</v>
+        <v>22.74012509124279</v>
       </c>
       <c r="E108">
-        <v>22.803466796875</v>
+        <v>22.80346870422363</v>
       </c>
       <c r="F108">
         <v>846600</v>
@@ -3838,16 +3838,16 @@
         <v>44309</v>
       </c>
       <c r="B111">
-        <v>21.46622643901119</v>
+        <v>21.46622835578659</v>
       </c>
       <c r="C111">
-        <v>21.71255965422955</v>
+        <v>21.71256159300069</v>
       </c>
       <c r="D111">
-        <v>21.0439400066969</v>
+        <v>21.04394188576524</v>
       </c>
       <c r="E111">
-        <v>21.36065483093262</v>
+        <v>21.36065673828125</v>
       </c>
       <c r="F111">
         <v>847380</v>
@@ -3890,16 +3890,16 @@
         <v>44313</v>
       </c>
       <c r="B113">
-        <v>21.10728449185153</v>
+        <v>21.10728255741168</v>
       </c>
       <c r="C113">
-        <v>21.49438094116904</v>
+        <v>21.49437897125259</v>
       </c>
       <c r="D113">
-        <v>20.4879308173015</v>
+        <v>20.48792893962415</v>
       </c>
       <c r="E113">
-        <v>20.81168365478516</v>
+        <v>20.81168174743652</v>
       </c>
       <c r="F113">
         <v>813420</v>
@@ -3916,16 +3916,16 @@
         <v>44314</v>
       </c>
       <c r="B114">
-        <v>20.81168229088049</v>
+        <v>20.81168403163045</v>
       </c>
       <c r="C114">
-        <v>22.88792440348684</v>
+        <v>22.88792631789975</v>
       </c>
       <c r="D114">
-        <v>20.81168229088049</v>
+        <v>20.81168403163045</v>
       </c>
       <c r="E114">
-        <v>22.803466796875</v>
+        <v>22.80346870422363</v>
       </c>
       <c r="F114">
         <v>1621380</v>
@@ -3968,16 +3968,16 @@
         <v>44316</v>
       </c>
       <c r="B116">
-        <v>23.0990693331674</v>
+        <v>23.09906744195332</v>
       </c>
       <c r="C116">
-        <v>24.38000469424974</v>
+        <v>24.38000269816031</v>
       </c>
       <c r="D116">
-        <v>23.00757372010509</v>
+        <v>23.00757183638213</v>
       </c>
       <c r="E116">
-        <v>23.29613494873047</v>
+        <v>23.29613304138184</v>
       </c>
       <c r="F116">
         <v>2615700</v>
@@ -30194,6 +30194,58 @@
         <v>0</v>
       </c>
       <c r="H1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1125">
+        <v>10.73999977111816</v>
+      </c>
+      <c r="C1125">
+        <v>10.73999977111816</v>
+      </c>
+      <c r="D1125">
+        <v>8.300000190734863</v>
+      </c>
+      <c r="E1125">
+        <v>8.380000114440918</v>
+      </c>
+      <c r="F1125">
+        <v>11937800</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1126">
+        <v>8.840000152587891</v>
+      </c>
+      <c r="C1126">
+        <v>9.050000190734863</v>
+      </c>
+      <c r="D1126">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="E1126">
+        <v>7.960000038146973</v>
+      </c>
+      <c r="F1126">
+        <v>19086100</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
         <v>0</v>
       </c>
     </row>
@@ -30247,31 +30299,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C2">
-        <v>9.12159362325194</v>
+        <v>9.122781900023455</v>
       </c>
       <c r="D2">
-        <v>4.523529419000763</v>
+        <v>4.523529594258305</v>
       </c>
       <c r="E2">
         <v>3.420000076293945</v>
       </c>
       <c r="F2">
-        <v>9.531275315612953</v>
+        <v>9.522917743714208</v>
       </c>
       <c r="G2">
         <v>2.515420585487719</v>
       </c>
       <c r="H2">
-        <v>3.411671256008933</v>
+        <v>3.411671319570929</v>
       </c>
       <c r="I2">
-        <v>11.03403036676371</v>
+        <v>10.99175440169471</v>
       </c>
       <c r="J2">
-        <v>7.622359110754775</v>
+        <v>7.58008308212378</v>
       </c>
       <c r="K2">
         <v>52.70405226093671</v>
@@ -30282,10 +30334,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C3">
-        <v>9.443183683147671</v>
+        <v>9.443986909810043</v>
       </c>
       <c r="D3">
         <v>4.650357791223212</v>
@@ -30294,7 +30346,7 @@
         <v>4.692633682138545</v>
       </c>
       <c r="F3">
-        <v>9.88353798698315</v>
+        <v>9.874823579564712</v>
       </c>
       <c r="G3">
         <v>2.553469002809152</v>
@@ -30303,10 +30355,10 @@
         <v>3.490000009536743</v>
       </c>
       <c r="I3">
-        <v>11.52020457203233</v>
+        <v>11.4990667424535</v>
       </c>
       <c r="J3">
-        <v>8.030204562495586</v>
+        <v>8.009066732916759</v>
       </c>
       <c r="K3">
         <v>54.14848289377909</v>
@@ -30317,31 +30369,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C4">
-        <v>8.806426823731474</v>
+        <v>8.804059841540456</v>
       </c>
       <c r="D4">
-        <v>4.39670175043188</v>
+        <v>4.438977486629216</v>
       </c>
       <c r="E4">
         <v>3.299999952316284</v>
       </c>
       <c r="F4">
-        <v>9.170448660947045</v>
+        <v>9.162524183585063</v>
       </c>
       <c r="G4">
         <v>2.511193126322292</v>
       </c>
       <c r="H4">
-        <v>3.333460996095859</v>
+        <v>3.335574655003014</v>
       </c>
       <c r="I4">
-        <v>10.7169602500071</v>
+        <v>10.69582166688003</v>
       </c>
       <c r="J4">
-        <v>7.383499253911237</v>
+        <v>7.360247011877019</v>
       </c>
       <c r="K4">
         <v>50.99187935897048</v>
@@ -30352,10 +30404,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C5">
-        <v>9.085549813556757</v>
+        <v>9.083922167460123</v>
       </c>
       <c r="D5">
         <v>4.523529529571533</v>
@@ -30364,19 +30416,19 @@
         <v>4.523529529571533</v>
       </c>
       <c r="F5">
-        <v>9.475088657372517</v>
+        <v>9.466737892863641</v>
       </c>
       <c r="G5">
         <v>2.536558628082275</v>
       </c>
       <c r="H5">
-        <v>3.417174100875854</v>
+        <v>3.41844916343689</v>
       </c>
       <c r="I5">
-        <v>11.07630634307861</v>
+        <v>11.03402996063232</v>
       </c>
       <c r="J5">
-        <v>7.659132242202759</v>
+        <v>7.615580797195435</v>
       </c>
       <c r="K5">
         <v>52.14037704467773</v>
@@ -30387,34 +30439,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C6">
-        <v>2729182.965271594</v>
+        <v>2751907.884444444</v>
       </c>
       <c r="D6">
-        <v>2241900</v>
+        <v>2242800</v>
       </c>
       <c r="E6">
         <v>488800</v>
       </c>
       <c r="F6">
-        <v>1987097.842826652</v>
+        <v>2062641.838313688</v>
       </c>
       <c r="G6">
         <v>39960</v>
       </c>
       <c r="H6">
-        <v>1304000</v>
+        <v>1304800</v>
       </c>
       <c r="I6">
-        <v>3688075</v>
+        <v>3700410</v>
       </c>
       <c r="J6">
-        <v>2384075</v>
+        <v>2395610</v>
       </c>
       <c r="K6">
-        <v>17258800</v>
+        <v>19086100</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -30422,10 +30474,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C7">
-        <v>0.004455799643811219</v>
+        <v>0.004447878222222222</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -30434,7 +30486,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1042756490092628</v>
+        <v>0.1041830050190747</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -30457,10 +30509,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C8">
-        <v>0.005431878895814781</v>
+        <v>0.005422222222222222</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -30469,7 +30521,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1790668661363476</v>
+        <v>0.1789076295108528</v>
       </c>
       <c r="G8">
         <v>0</v>
